--- a/reports/liquidacion/templates/xlsx/template.xlsx
+++ b/reports/liquidacion/templates/xlsx/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11217"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc1/Documents/Connect/connect-reports/reports/fulfillment_requests/templates/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc1/Documents/Connect/connect_reports/reports/subscription_list/templates/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069683C0-0C9B-3943-BB8F-3698B5E5BDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D9FCAD-C3B9-704B-8CF3-0C93CA4DD9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="35840" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -25,15 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
-    <t>Request ID</t>
-  </si>
-  <si>
-    <t>Request Type</t>
-  </si>
-  <si>
-    <t>Exported At</t>
-  </si>
-  <si>
     <t>Customer ID</t>
   </si>
   <si>
@@ -43,28 +34,58 @@
     <t>Customer External ID</t>
   </si>
   <si>
+    <t>Provider Account ID</t>
+  </si>
+  <si>
+    <t>Provider Account name</t>
+  </si>
+  <si>
+    <t>Vendor Account ID</t>
+  </si>
+  <si>
+    <t>Vendor Account Name</t>
+  </si>
+  <si>
     <t>Product ID</t>
   </si>
   <si>
     <t>Product Name</t>
   </si>
   <si>
-    <t>Asset ID</t>
-  </si>
-  <si>
-    <t>Asset External ID</t>
-  </si>
-  <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Hub ID</t>
   </si>
   <si>
     <t>Hub Name</t>
   </si>
   <si>
-    <t>Request Status</t>
+    <t>Subscription ID</t>
+  </si>
+  <si>
+    <t>Subscription External ID</t>
+  </si>
+  <si>
+    <t>Creation date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Billing Period</t>
+  </si>
+  <si>
+    <t>Anniversary Day</t>
+  </si>
+  <si>
+    <t>Anniversary Month</t>
+  </si>
+  <si>
+    <t>Updated date</t>
+  </si>
+  <si>
+    <t>Contract ID</t>
+  </si>
+  <si>
+    <t>Contract Name</t>
   </si>
   <si>
     <t>Tier 1 ID</t>
@@ -85,31 +106,10 @@
     <t>Tier 2 External ID</t>
   </si>
   <si>
-    <t>Vendor ID</t>
-  </si>
-  <si>
-    <t>Vendor Name</t>
-  </si>
-  <si>
-    <t>Provider  ID</t>
-  </si>
-  <si>
-    <t>Provider Name</t>
-  </si>
-  <si>
-    <t>Created At</t>
-  </si>
-  <si>
-    <t>Updated At</t>
-  </si>
-  <si>
-    <t>Asset Status</t>
-  </si>
-  <si>
-    <t>Marketplace ID</t>
-  </si>
-  <si>
-    <t>Marketplace Name</t>
+    <t>Subscription Type</t>
+  </si>
+  <si>
+    <t>Vendor Reconciliation ID</t>
   </si>
 </sst>
 </file>
@@ -151,9 +151,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,128 +469,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="21.1640625" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="45.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="45.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="45.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="20" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="45.83203125" customWidth="1"/>
-    <col min="20" max="20" width="20" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="45.83203125" customWidth="1"/>
-    <col min="22" max="22" width="20" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="45.83203125" customWidth="1"/>
-    <col min="24" max="24" width="25.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="20" customWidth="1"/>
-    <col min="26" max="26" width="14" customWidth="1"/>
-    <col min="27" max="27" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="45.83203125" customWidth="1"/>
-    <col min="29" max="29" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="4" width="20" style="4" customWidth="1"/>
+    <col min="5" max="6" width="18.83203125" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="18.83203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="17.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="17.83203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="45.83203125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="20" style="4" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="45.83203125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="20" style="4" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="45.83203125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="20" style="4" customWidth="1"/>
+    <col min="22" max="22" width="20" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="45.83203125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="15" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="45.83203125" style="4" customWidth="1"/>
+    <col min="26" max="26" width="20" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="45.83203125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="15" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="45.83203125" style="4" customWidth="1"/>
+    <col min="30" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/reports/liquidacion/templates/xlsx/template.xlsx
+++ b/reports/liquidacion/templates/xlsx/template.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc1/Documents/Connect/connect_reports/reports/subscription_list/templates/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telefonicacorp-my.sharepoint.com/personal/mariacristina_fernandezgrande_telefonica_com/Documents/Documents/Cristina Backup/TESLite/TESLite-reports-master/subscription_list/templates/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D9FCAD-C3B9-704B-8CF3-0C93CA4DD9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{47D9FCAD-C3B9-704B-8CF3-0C93CA4DD9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78B28857-A5BD-4378-9C4F-8293FEE75365}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AC$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$Y$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Customer ID</t>
   </si>
@@ -34,12 +34,6 @@
     <t>Customer External ID</t>
   </si>
   <si>
-    <t>Provider Account ID</t>
-  </si>
-  <si>
-    <t>Provider Account name</t>
-  </si>
-  <si>
     <t>Vendor Account ID</t>
   </si>
   <si>
@@ -52,12 +46,6 @@
     <t>Product Name</t>
   </si>
   <si>
-    <t>Hub ID</t>
-  </si>
-  <si>
-    <t>Hub Name</t>
-  </si>
-  <si>
     <t>Subscription ID</t>
   </si>
   <si>
@@ -88,28 +76,28 @@
     <t>Contract Name</t>
   </si>
   <si>
-    <t>Tier 1 ID</t>
-  </si>
-  <si>
     <t>Tier 1 Name</t>
   </si>
   <si>
     <t>Tier 1 External ID</t>
   </si>
   <si>
-    <t>Tier 2 ID</t>
-  </si>
-  <si>
-    <t>Tier 2 Name</t>
-  </si>
-  <si>
-    <t>Tier 2 External ID</t>
-  </si>
-  <si>
     <t>Subscription Type</t>
   </si>
   <si>
     <t>Vendor Reconciliation ID</t>
+  </si>
+  <si>
+    <t>Tax ID</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>Bitdefender ID</t>
+  </si>
+  <si>
+    <t>Fractalia ID</t>
   </si>
 </sst>
 </file>
@@ -151,18 +139,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -467,79 +451,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="4" width="20" style="4" customWidth="1"/>
-    <col min="5" max="6" width="18.83203125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="18.83203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="20" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="17.83203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="17.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="45.83203125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="20" style="4" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="45.83203125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="20" style="4" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="45.83203125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="20" style="4" customWidth="1"/>
-    <col min="22" max="22" width="20" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="45.83203125" style="4" customWidth="1"/>
-    <col min="24" max="24" width="15" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="45.83203125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="20" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="45.83203125" style="4" customWidth="1"/>
-    <col min="28" max="28" width="15" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="45.83203125" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="26.28515625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="4" width="20" style="3" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="18.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="17.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="17.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="45.85546875" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="20" style="3" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="45.85546875" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="20" style="3" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="45.85546875" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="20" style="3" customWidth="1"/>
+    <col min="22" max="22" width="15" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="45.85546875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="20" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="45.85546875" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
@@ -563,10 +543,10 @@
         <v>24</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>3</v>
@@ -580,21 +560,9 @@
       <c r="Y1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC1" xr:uid="{444A851A-3A6C-984B-A410-97137E4DF2E6}"/>
+  <autoFilter ref="A1:Y1" xr:uid="{444A851A-3A6C-984B-A410-97137E4DF2E6}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>